--- a/03_Framework/00_环境搭建/集群节点规划.xlsx
+++ b/03_Framework/00_环境搭建/集群节点规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LearningBigData\03_Framework\00_环境搭建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5011D569-D1A6-425E-A15D-0F656FA3B491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00673F0-E6DF-4A0D-9910-D74E23439179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="20595" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="集群配置" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,9 +295,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -583,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -595,7 +610,7 @@
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -615,19 +630,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -639,7 +654,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -656,7 +671,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -671,7 +686,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -686,7 +701,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -701,19 +716,19 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -742,10 +757,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
@@ -757,23 +772,22 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
@@ -785,8 +799,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -798,7 +812,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -813,21 +827,20 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
@@ -839,10 +852,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -854,10 +867,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
@@ -865,10 +878,10 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
@@ -876,10 +889,10 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
@@ -890,13 +903,35 @@
         <v>26</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="14">
+    <mergeCell ref="A22:B23"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A4:A7"/>
@@ -905,6 +940,11 @@
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_Framework/00_环境搭建/集群节点规划.xlsx
+++ b/03_Framework/00_环境搭建/集群节点规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LearningBigData\03_Framework\00_环境搭建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00673F0-E6DF-4A0D-9910-D74E23439179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A601B2-8241-4559-9CFC-16EE3F4C85E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="465" windowWidth="20595" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>

--- a/03_Framework/00_环境搭建/集群节点规划.xlsx
+++ b/03_Framework/00_环境搭建/集群节点规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LearningBigData\03_Framework\00_环境搭建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A601B2-8241-4559-9CFC-16EE3F4C85E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A19F2B-D136-4E15-80A3-AC1FD039DD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="20595" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="集群配置" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>RegionServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoenix queryServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master backup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -291,11 +306,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,6 +393,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -904,21 +999,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
@@ -929,9 +1024,30 @@
         <v>40</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:B23"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A4:A7"/>
@@ -945,6 +1061,7 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A22:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_Framework/00_环境搭建/集群节点规划.xlsx
+++ b/03_Framework/00_环境搭建/集群节点规划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LearningBigData\03_Framework\00_环境搭建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A19F2B-D136-4E15-80A3-AC1FD039DD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCA3CA0-6CDB-40E8-874D-B19584F459DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>Master backup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azkaban</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,6 +397,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -734,10 +741,10 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -749,7 +756,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -766,7 +773,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -781,7 +788,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -796,7 +803,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -820,10 +827,10 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -852,10 +859,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
@@ -867,10 +874,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -881,8 +888,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
@@ -894,8 +901,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -907,7 +914,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -922,8 +929,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -934,8 +941,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
@@ -947,10 +954,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -962,10 +969,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
@@ -973,10 +980,10 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
@@ -984,10 +991,10 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
@@ -999,10 +1006,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>39</v>
@@ -1012,8 +1019,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1025,8 +1032,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
@@ -1034,8 +1041,8 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
@@ -1046,8 +1053,26 @@
         <v>41</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A22:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A4:A7"/>
@@ -1056,12 +1081,6 @@
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
